--- a/docs/vlan table.xlsx
+++ b/docs/vlan table.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c99ma\Documents\School Fall 25\sys admin\group proj\IT-C-344---System-Administration-Project\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF16248-5B49-41FE-AAA7-92D9BCCD5C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>VLAN ID</t>
+  </si>
+  <si>
+    <t>VLAN Name</t>
+  </si>
+  <si>
+    <t>IP Subnet</t>
+  </si>
+  <si>
+    <t>Hosts/Services</t>
+  </si>
+  <si>
+    <t>Example Firewall Rules (Least Privilege)</t>
+  </si>
+  <si>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t>IT &amp; Execs</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>10.0.10.0/24</t>
+  </si>
+  <si>
+    <t>10.0.20.0/24</t>
+  </si>
+  <si>
+    <t>10.0.30.0/24</t>
+  </si>
+  <si>
+    <t>DNS, Web Server, File Server, IDS/IPS/SIEM, Metric Server, Vuln Scanner, Database, AD, Backup DB, Backup AD, Backup Data</t>
+  </si>
+  <si>
+    <t>IT &amp; Exec workstations</t>
+  </si>
+  <si>
+    <t>Employee Workstations</t>
+  </si>
+  <si>
+    <t>Allow Workstations → DNS TCP/UDP 53, Allow Workstations → Web TCP 80/443, Deny inter-VLAN traffic</t>
+  </si>
+  <si>
+    <t>Allow Management VLAN → all servers (necessary ports only), Deny all other access</t>
+  </si>
+  <si>
+    <t>Allow WAN → Web Server TCP 443/80, Allow Management VLAN → Web Server TCP 22/3389, Deny all else, Allow Web Servers → Database TCP 3306, Allow Management VLAN → Database TCP 3306, Deny all else, Allow Management VLAN → File Server TCP 445/139, Allow Workstations VLAN → File Server TCP 445/139, Allow Management VLAN → SIEM TCP 514/443, Allow SIEM → all servers for log collection, Deny all else, Allow Management VLAN → Backup TCP 22/873/445, Deny all else, Allow Admin VLAN → all servers (necessary ports only), Allow Admin → VPN TCP 1194, Deny all else</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +90,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +119,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +425,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="5:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="2">
+        <v>200</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="2">
+        <v>201</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E6" s="2">
+        <v>202</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/vlan table.xlsx
+++ b/docs/vlan table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c99ma\Documents\School Fall 25\sys admin\group proj\IT-C-344---System-Administration-Project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF16248-5B49-41FE-AAA7-92D9BCCD5C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC834F-77A9-487A-B481-733643EC9AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21705" yWindow="-13470" windowWidth="21810" windowHeight="19305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,13 +69,28 @@
     <t>Employee Workstations</t>
   </si>
   <si>
-    <t>Allow Workstations → DNS TCP/UDP 53, Allow Workstations → Web TCP 80/443, Deny inter-VLAN traffic</t>
-  </si>
-  <si>
-    <t>Allow Management VLAN → all servers (necessary ports only), Deny all other access</t>
-  </si>
-  <si>
-    <t>Allow WAN → Web Server TCP 443/80, Allow Management VLAN → Web Server TCP 22/3389, Deny all else, Allow Web Servers → Database TCP 3306, Allow Management VLAN → Database TCP 3306, Deny all else, Allow Management VLAN → File Server TCP 445/139, Allow Workstations VLAN → File Server TCP 445/139, Allow Management VLAN → SIEM TCP 514/443, Allow SIEM → all servers for log collection, Deny all else, Allow Management VLAN → Backup TCP 22/873/445, Deny all else, Allow Admin VLAN → all servers (necessary ports only), Allow Admin → VPN TCP 1194, Deny all else</t>
+    <t xml:space="preserve">
+Allow WAN → Web Server TCP 443/80, 
+Allow Management VLAN → Web Server TCP 22/3389, 
+Deny all else, 
+Allow Web Servers → Database TCP 3306, 
+Allow VLAN 201 → Database TCP 3306, 
+Deny all else, 
+Allow VLAN 201 → File Server TCP 445/139,
+Allow VLAN 202 → File Server TCP 445/139, 
+Allow VLAN 201 → SIEM TCP 514/443, 
+Allow SIEM → all servers for log collection, 
+Deny all else, 
+Allow VLAN 201 → Backup TCP 22/873/445, 
+Deny all else, 
+Allow VLAN 201 → all servers (necessary ports only), 
+Allow Admin → VPN TCP 1194, Deny all else</t>
+  </si>
+  <si>
+    <t>Allow VLAN 201 → all servers (necessary ports only), Deny all other access</t>
+  </si>
+  <si>
+    <t>Allow VLAN 202 → DNS TCP/UDP 53, Allow VLAN 202 → Web TCP 80/443, Deny inter-VLAN traffic</t>
   </si>
 </sst>
 </file>
@@ -429,22 +444,22 @@
   <dimension ref="E2:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="5:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="5:9" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:9" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="2">
         <v>200</v>
       </c>
@@ -475,10 +490,10 @@
         <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E5" s="2">
         <v>201</v>
       </c>
@@ -495,7 +510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <v>202</v>
       </c>
@@ -509,7 +524,7 @@
         <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/vlan table.xlsx
+++ b/docs/vlan table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c99ma\Documents\School Fall 25\sys admin\group proj\IT-C-344---System-Administration-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC834F-77A9-487A-B481-733643EC9AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0C0420-6451-4D7B-926A-3B4B775DF62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21705" yWindow="-13470" windowWidth="21810" windowHeight="19305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>VLAN ID</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Allow VLAN 202 → DNS TCP/UDP 53, Allow VLAN 202 → Web TCP 80/443, Deny inter-VLAN traffic</t>
+  </si>
+  <si>
+    <t>Backup Server</t>
+  </si>
+  <si>
+    <t>Backups</t>
+  </si>
+  <si>
+    <t>10.0.40.0/24</t>
   </si>
 </sst>
 </file>
@@ -441,25 +450,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:I6"/>
+  <dimension ref="E2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.85546875" style="2"/>
-    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="5:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="5:9" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:9" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="2">
         <v>200</v>
       </c>
@@ -493,24 +502,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E5" s="2">
         <v>201</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="5:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E6" s="2">
         <v>202</v>
       </c>
@@ -525,6 +531,23 @@
       </c>
       <c r="I6" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="2">
+        <v>203</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
